--- a/KnowledgeGraph/data/product_element.xlsx
+++ b/KnowledgeGraph/data/product_element.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="21191" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>名词</t>
   </si>
@@ -22,28 +22,43 @@
     <t>定义</t>
   </si>
   <si>
+    <t>别名</t>
+  </si>
+  <si>
     <t>募集期</t>
   </si>
   <si>
-    <t>可以认购此款理财产品的时期，从理财产品招募公告开始到基金成立为止。</t>
+    <t>可以认购此款理财产品的时期,从理财产品招募公告开始到基金成立为止。</t>
+  </si>
+  <si>
+    <t>认购期,计划购买期</t>
   </si>
   <si>
     <t>认购资金</t>
   </si>
   <si>
-    <t>指在认购期，认购人为认购理财计划份额而向管理人交付的货币资金。为免疑 义，认购资金不包含认购资金在认购期内所产生的利息。 3</t>
+    <t>指在认购期,认购人为认购理财计划份额而向管理人交付的货币资金。为免疑 义,认购资金不包含认购资金在认购期内所产生的利息。</t>
+  </si>
+  <si>
+    <t>认购金</t>
   </si>
   <si>
     <t>理财计划募集资金</t>
   </si>
   <si>
-    <t xml:space="preserve">指认购人按照理财计划合同的约定交付，并经管理人确认认购成功而 进入理财计划账户的认购资金的总和。 </t>
+    <t xml:space="preserve">指认购人按照理财计划合同的约定交付,并经管理人确认认购成功而 进入理财计划账户的认购资金的总和。 </t>
+  </si>
+  <si>
+    <t>募集金,募集资金</t>
   </si>
   <si>
     <t>理财计划资金</t>
   </si>
   <si>
-    <t xml:space="preserve">指理财计划募集资金，以及管理人管理、运用、处分该等理财计划募集资 金而取得且归于理财计划所有的货币资金。 </t>
+    <t xml:space="preserve">指理财计划募集资金,以及管理人管理、运用、处分该等理财计划募集资 金而取得且归于理财计划所有的货币资金。 </t>
+  </si>
+  <si>
+    <t>计划资金,计划金</t>
   </si>
   <si>
     <t>本金</t>
@@ -52,22 +67,34 @@
     <t>即贷款、存款或投资在计算利息之前的原始金额。</t>
   </si>
   <si>
+    <t>原始金额</t>
+  </si>
+  <si>
     <t>收益率</t>
   </si>
   <si>
-    <t>是指投资的回报率，一般以年度百分比来表达，根据当时市场价格、面值、息票利率以及距离到期日时间计算。对公司而言，收益率指净利润占使用的平均资本的百分比。</t>
+    <t>指投资的回报率,一般以年度百分比来表达,根据当时市场价格、面值、息票利率以及距离到期日时间计算。对公司而言,收益率指净利润占使用的平均资本的百分比。</t>
+  </si>
+  <si>
+    <t>回报率</t>
   </si>
   <si>
     <t>产品起息日</t>
   </si>
   <si>
-    <t>产品开始按约定收益率计算收益的日期。一般情况下不包含募集期和清算期，仅在投资期内计算收益。</t>
+    <t>产品开始按约定收益率计算收益的日期。一般情况下不包含募集期和清算期,仅在投资期内计算收益。</t>
+  </si>
+  <si>
+    <t>开始日</t>
   </si>
   <si>
     <t>起点金额/起购金额</t>
   </si>
   <si>
-    <t>约定该产品的最低购买金额，少于这个金额,不会允许申购。</t>
+    <t>约定该产品的最低购买金额,少于这个金额,不会允许申购。</t>
+  </si>
+  <si>
+    <t>起购金额,最小金额</t>
   </si>
   <si>
     <t>理财产品份额/理财计划份额</t>
@@ -76,40 +103,61 @@
     <t xml:space="preserve">指管理人依据理财计划文件向投资者发行的一种资产受益凭证。理财计划 份额持有人基于其所持有的理财计划份额享有理财计划利益、承担理财计划资产风险。 </t>
   </si>
   <si>
+    <t>理财计划份额,产品份额,计划份额</t>
+  </si>
+  <si>
     <t>资金到账日</t>
   </si>
   <si>
     <t>资金到达账户的时间。</t>
   </si>
   <si>
+    <t>到账日</t>
+  </si>
+  <si>
     <t>认购</t>
   </si>
   <si>
-    <t>基金首次募集期购买基金的行为</t>
+    <t>基金首次募集期购买基金的行为。</t>
+  </si>
+  <si>
+    <t>订购,募集购买</t>
   </si>
   <si>
     <t>申购</t>
   </si>
   <si>
-    <t>申购指在基金成立后的存续期间，处于申购开放状态期内，投资者申请购买基金份额的行为。</t>
+    <t>申购指在基金成立后的存续期间,处于申购开放状态期内,投资者申请购买基金份额的行为。</t>
+  </si>
+  <si>
+    <t>申请购买</t>
   </si>
   <si>
     <t>赎回</t>
   </si>
   <si>
-    <t xml:space="preserve">指在理财计划的赎回期内，投资者向理财计划管理人提出申请对 理财计划份额进行卖出的行为。 </t>
+    <t xml:space="preserve">指在理财计划的赎回期内,投资者向理财计划管理人提出申请对 理财计划份额进行卖出的行为。 </t>
+  </si>
+  <si>
+    <t>卖出</t>
   </si>
   <si>
     <t>巨额赎回</t>
   </si>
   <si>
-    <t>在理财计划存续期内的开放期内，若理财计划任一开放日净赎回额（赎回申请 份额总数扣除申购申请份额总数）超过本理财计划上一工作日日终份额的 10%时，即为发生巨额赎回。</t>
+    <t>在理财计划存续期内的开放期内,若理财计划任一开放日净赎回额（赎回申请 份额总数扣除申购申请份额总数）超过本理财计划上一工作日日终份额的 10%时,即为发生巨额赎回。</t>
+  </si>
+  <si>
+    <t>大额赎回</t>
   </si>
   <si>
     <t>撤单</t>
   </si>
   <si>
-    <t>撤单意思是撤回未成交的委托单，购买股票，基金，委托未成交或未受理，可以撤回。</t>
+    <t>撤单意思是撤回未成交的委托单,购买股票,基金,委托未成交或未受理,可以撤回。</t>
+  </si>
+  <si>
+    <t>撤回,取消购买</t>
   </si>
   <si>
     <t>产品成立</t>
@@ -118,10 +166,16 @@
     <t>产品达到说明书中所提到的成立要求。</t>
   </si>
   <si>
+    <t>成立</t>
+  </si>
+  <si>
     <t>业绩基准/业绩比较基准</t>
   </si>
   <si>
-    <t xml:space="preserve">指管理人基于过往投资经验及对产品存续期投资市场波动的预判而对本 产品所设定的投资目标，业绩比较基准不代表本产品的未来表现和实际收益，或投资管理人 对本产品进行的收益承诺。 </t>
+    <t xml:space="preserve">指管理人基于过往投资经验及对产品存续期投资市场波动的预判而对本 产品所设定的投资目标,业绩比较基准不代表本产品的未来表现和实际收益,或投资管理人 对本产品进行的收益承诺。 </t>
+  </si>
+  <si>
+    <t>业绩比较基准</t>
   </si>
   <si>
     <t>理财账户最低保留份额</t>
@@ -130,16 +184,25 @@
     <t>某笔赎回导致基金份额持有人持有的基金份额余额不足最低保留份额时,余额部分基金份额必须一同全部赎回。</t>
   </si>
   <si>
+    <t>保留份额</t>
+  </si>
+  <si>
     <t>单位净值/理财计划份额净值</t>
   </si>
   <si>
-    <t>指理财计划份额的单位净值，即每 1 份理财计划份额以人民币计价的价格。</t>
+    <t>指理财计划份额的单位净值,即每 1 份理财计划份额以人民币计价的价格。</t>
+  </si>
+  <si>
+    <t>净值</t>
   </si>
   <si>
     <t>流动性</t>
   </si>
   <si>
     <t>理财展品的变现能力。</t>
+  </si>
+  <si>
+    <t>流动能力</t>
   </si>
 </sst>
 </file>
@@ -152,7 +215,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +227,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -175,6 +260,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -184,15 +308,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,61 +330,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,38 +355,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,19 +377,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,25 +527,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,127 +557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,8 +574,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,39 +639,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,21 +668,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,10 +676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +688,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -766,7 +822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,180 +1144,243 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
